--- a/files/History5400732.xlsx
+++ b/files/History5400732.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AnapauGiusti/Documents/Microestructuras y Sistemas de Trading/MyST_LAB_3_E3/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf35db895861915d/ITESO/MySt/LABS/MyST_LAB_3_E3/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF936C5E-9878-974F-A8B0-946592615D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{BF936C5E-9878-974F-A8B0-946592615D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2228392A-26DC-4977-9E3E-8CC74A191B63}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="13520" xr2:uid="{C08C49E9-9083-C745-AE38-6174E27D12B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C08C49E9-9083-C745-AE38-6174E27D12B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" r:id="rId1"/>
@@ -687,13 +687,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B932DFE3-339F-C141-8325-8A4407F6D3D0}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -775,7 +775,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -816,7 +816,7 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -857,7 +857,7 @@
         <v>-105.4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -898,7 +898,7 @@
         <v>11.92</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -939,10 +939,10 @@
         <v>-22.4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -955,10 +955,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -974,75 +974,75 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="D45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="D50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="D52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="E58" s="2"/>
     </row>
@@ -1059,9 +1059,9 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1417,9 +1417,9 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1920,26 +1920,26 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -1951,13 +1951,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3898F3-D25A-2246-B012-1C018BC6D3BD}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1977,7 +1985,7 @@
         <v>-133.16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1991,7 +1999,7 @@
         <v>-23.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2005,12 +2013,12 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2030,7 +2038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -2050,7 +2058,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>75</v>
       </c>
@@ -2064,7 +2072,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>79</v>
       </c>
@@ -2078,7 +2086,7 @@
         <v>-106.06</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>81</v>
       </c>
@@ -2092,7 +2100,7 @@
         <v>-44.39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>83</v>
       </c>
@@ -2106,7 +2114,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>87</v>
       </c>
@@ -2120,7 +2128,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>91</v>
       </c>

--- a/files/History5400732.xlsx
+++ b/files/History5400732.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf35db895861915d/ITESO/MySt/LABS/MyST_LAB_3_E3/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AnapauGiusti/Documents/Microestructuras y Sistemas de Trading/MyST_LAB_3_E3/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{BF936C5E-9878-974F-A8B0-946592615D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2228392A-26DC-4977-9E3E-8CC74A191B63}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB156C-7B91-834F-83FD-32250C1E258F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C08C49E9-9083-C745-AE38-6174E27D12B8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{C08C49E9-9083-C745-AE38-6174E27D12B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="99">
   <si>
     <t>Time</t>
   </si>
@@ -123,9 +123,6 @@
     <t>2021.09.24 23:56:35</t>
   </si>
   <si>
-    <t>Open Time</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -316,6 +313,27 @@
   </si>
   <si>
     <t>Average consecutive losses:</t>
+  </si>
+  <si>
+    <t>opentime</t>
+  </si>
+  <si>
+    <t>closetime</t>
+  </si>
+  <si>
+    <t>closeprice</t>
+  </si>
+  <si>
+    <t>openprice</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>symbol</t>
   </si>
 </sst>
 </file>
@@ -687,30 +705,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B932DFE3-339F-C141-8325-8A4407F6D3D0}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -719,10 +737,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -731,10 +749,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -775,7 +793,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -816,7 +834,7 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -857,7 +875,7 @@
         <v>-105.4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -898,7 +916,7 @@
         <v>11.92</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -939,10 +957,10 @@
         <v>-22.4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -955,10 +973,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -974,75 +992,75 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="D45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="D50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="D52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
       <c r="E58" s="2"/>
     </row>
@@ -1055,18 +1073,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7231FC-E004-8342-A97D-52FE32F65FEA}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1090,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1110,10 +1126,10 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
       </c>
       <c r="G2">
         <v>1.3419099999999999</v>
@@ -1125,13 +1141,13 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1145,10 +1161,10 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
       </c>
       <c r="G3">
         <v>1.17272</v>
@@ -1160,10 +1176,10 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1177,19 +1193,19 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1203,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>1.17272</v>
@@ -1212,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1232,10 +1248,10 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>0.73067000000000004</v>
@@ -1247,10 +1263,10 @@
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1264,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>0.73067000000000004</v>
@@ -1273,13 +1289,13 @@
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1293,10 +1309,10 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
       </c>
       <c r="G8">
         <v>1.2606200000000001</v>
@@ -1308,13 +1324,13 @@
         <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1328,19 +1344,19 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1354,10 +1370,10 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
       </c>
       <c r="G10">
         <v>0.70023999999999997</v>
@@ -1369,13 +1385,13 @@
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1389,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>0.70023999999999997</v>
@@ -1398,10 +1414,10 @@
         <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1417,14 +1433,14 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1433,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1442,13 +1458,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -1457,42 +1473,42 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>45</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
       </c>
       <c r="B2">
         <v>32760676</v>
       </c>
       <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>47</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1506,7 +1522,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>0.1</v>
@@ -1530,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1550,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -1574,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1591,7 +1607,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -1615,10 +1631,10 @@
         <v>5.9</v>
       </c>
       <c r="M5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1632,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>0.1</v>
@@ -1656,13 +1672,13 @@
         <v>-4.7</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1676,7 +1692,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -1700,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1717,7 +1733,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>0.2</v>
@@ -1741,13 +1757,13 @@
         <v>-105.4</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1761,7 +1777,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>0.1</v>
@@ -1785,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1805,7 +1821,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>0.1</v>
@@ -1829,10 +1845,10 @@
         <v>11.92</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1846,7 +1862,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -1870,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1890,7 +1906,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>0.1</v>
@@ -1914,32 +1930,32 @@
         <v>-22.4</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -1951,192 +1967,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3898F3-D25A-2246-B012-1C018BC6D3BD}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2">
         <v>-116.02</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2">
         <v>17.14</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2">
         <v>-133.16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2">
         <v>0.13</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2">
         <v>-23.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2">
         <v>-0.95</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2">
         <v>-0.54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>65</v>
       </c>
       <c r="B6" s="2">
         <v>116.02</v>
       </c>
       <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" t="s">
         <v>67</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" t="s">
         <v>72</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" t="s">
         <v>76</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>79</v>
       </c>
       <c r="C10" s="2">
         <v>11.6</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2">
         <v>-106.06</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2">
         <v>8.57</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2">
         <v>-44.39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" t="s">
         <v>84</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" t="s">
         <v>88</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>91</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>

--- a/files/History5400732.xlsx
+++ b/files/History5400732.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AnapauGiusti/Documents/Microestructuras y Sistemas de Trading/MyST_LAB_3_E3/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB156C-7B91-834F-83FD-32250C1E258F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD413CBA-F8C3-9F4A-A855-3914E6EC4125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{C08C49E9-9083-C745-AE38-6174E27D12B8}"/>
   </bookViews>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="100">
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
     <t>Symbol</t>
   </si>
   <si>
@@ -318,22 +315,28 @@
     <t>opentime</t>
   </si>
   <si>
-    <t>closetime</t>
-  </si>
-  <si>
-    <t>closeprice</t>
-  </si>
-  <si>
-    <t>openprice</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>symbol</t>
+    <t>OpenTime</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>OpenPrice</t>
+  </si>
+  <si>
+    <t>S/L</t>
+  </si>
+  <si>
+    <t>T/P</t>
+  </si>
+  <si>
+    <t>CloseTime</t>
+  </si>
+  <si>
+    <t>ClosePrice</t>
   </si>
 </sst>
 </file>
@@ -703,67 +706,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B932DFE3-339F-C141-8325-8A4407F6D3D0}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>45426490</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0.1</v>
@@ -778,33 +775,27 @@
         <v>1.4169099999999999</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>1.36541</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>-0.36</v>
-      </c>
-      <c r="M2">
         <v>5.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>45448836</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0.1</v>
@@ -819,33 +810,27 @@
         <v>1.17072</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>1.1727099999999999</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
         <v>-4.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>45470330</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0.2</v>
@@ -860,33 +845,27 @@
         <v>0.71567000000000003</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>0.73067000000000004</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>-0.66</v>
-      </c>
-      <c r="M4">
         <v>-105.4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>45498648</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0.1</v>
@@ -901,33 +880,27 @@
         <v>1.27189</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5">
         <v>1.2669900000000001</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>-0.32</v>
-      </c>
-      <c r="M5">
         <v>11.92</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>45522977</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -942,41 +915,33 @@
         <v>70507</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6">
         <v>0.70009999999999994</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
         <v>-22.4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -989,8 +954,6 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
@@ -1079,57 +1042,57 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>45426490</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
       </c>
       <c r="G2">
         <v>1.3419099999999999</v>
@@ -1138,33 +1101,33 @@
         <v>1.4169099999999999</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>45448836</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
       </c>
       <c r="G3">
         <v>1.17272</v>
@@ -1173,85 +1136,85 @@
         <v>1.17072</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>45449013</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
         <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>45450963</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>1.17272</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>45470330</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>0.73067000000000004</v>
@@ -1260,59 +1223,59 @@
         <v>0.71567000000000003</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>45498022</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>0.73067000000000004</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>45498648</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
       </c>
       <c r="G8">
         <v>1.2606200000000001</v>
@@ -1321,59 +1284,59 @@
         <v>1.27189</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>45509389</v>
       </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>45522977</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
       </c>
       <c r="G10">
         <v>0.70023999999999997</v>
@@ -1382,42 +1345,42 @@
         <v>70507</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>45525705</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>0.70023999999999997</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1440,89 +1403,89 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>32760676</v>
       </c>
       <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>46</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
         <v>47</v>
-      </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>32810639</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>0.1</v>
@@ -1546,27 +1509,27 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>32831154</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -1590,24 +1553,24 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>32831327</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -1631,24 +1594,24 @@
         <v>5.9</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>32833202</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>0.1</v>
@@ -1672,27 +1635,27 @@
         <v>-4.7</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>32850106</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -1716,24 +1679,24 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>32876154</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>0.2</v>
@@ -1757,27 +1720,27 @@
         <v>-105.4</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>32876771</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0.1</v>
@@ -1801,27 +1764,27 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>32885396</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>0.1</v>
@@ -1845,24 +1808,24 @@
         <v>11.92</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>32898459</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -1886,27 +1849,27 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>32901189</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12">
         <v>0.1</v>
@@ -1930,10 +1893,10 @@
         <v>-22.4</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1983,19 +1946,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2">
         <v>-116.02</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2">
         <v>17.14</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2">
         <v>-133.16</v>
@@ -2003,13 +1966,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2">
         <v>0.13</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2">
         <v>-23.2</v>
@@ -2017,13 +1980,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2">
         <v>-0.95</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2">
         <v>-0.54</v>
@@ -2031,72 +1994,72 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2">
         <v>116.02</v>
       </c>
       <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" t="s">
         <v>71</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2">
         <v>11.6</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2">
         <v>-106.06</v>
@@ -2104,13 +2067,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2">
         <v>8.57</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2">
         <v>-44.39</v>
@@ -2118,41 +2081,41 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" t="s">
         <v>83</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" t="s">
         <v>87</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>

--- a/files/History5400732.xlsx
+++ b/files/History5400732.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AnapauGiusti/Documents/Microestructuras y Sistemas de Trading/MyST_LAB_3_E3/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD413CBA-F8C3-9F4A-A855-3914E6EC4125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E98C2A19-CDAF-8E49-AD2E-785BB0C03F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{C08C49E9-9083-C745-AE38-6174E27D12B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
   <si>
     <t>Time</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>opentime</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>OpenTime</t>
@@ -709,225 +706,243 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>45426490</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>1.3648199999999999</v>
+      </c>
+      <c r="H2">
+        <v>1.3419099999999999</v>
+      </c>
+      <c r="I2">
+        <v>1.4169099999999999</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>1.36541</v>
+      </c>
+      <c r="L2">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>45448836</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
+        <v>1.1722399999999999</v>
+      </c>
+      <c r="H3">
+        <v>1.17272</v>
+      </c>
+      <c r="I3">
+        <v>1.17072</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>1.1727099999999999</v>
+      </c>
+      <c r="L3">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>45426490</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>45470330</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>0.72540000000000004</v>
+      </c>
+      <c r="H4">
+        <v>0.73067000000000004</v>
+      </c>
+      <c r="I4">
+        <v>0.71567000000000003</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>0.73067000000000004</v>
+      </c>
+      <c r="L4">
+        <v>-105.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>45498648</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1</v>
       </c>
-      <c r="F2">
-        <v>1.3648199999999999</v>
-      </c>
-      <c r="G2">
-        <v>1.3419099999999999</v>
-      </c>
-      <c r="H2">
-        <v>1.4169099999999999</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2">
-        <v>1.36541</v>
-      </c>
-      <c r="K2">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>45448836</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="G5">
+        <v>1.2654799999999999</v>
+      </c>
+      <c r="H5">
+        <v>1.2606200000000001</v>
+      </c>
+      <c r="I5">
+        <v>1.27189</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5">
+        <v>1.2669900000000001</v>
+      </c>
+      <c r="L5">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>45522977</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.1</v>
       </c>
-      <c r="F3">
-        <v>1.1722399999999999</v>
-      </c>
-      <c r="G3">
-        <v>1.17272</v>
-      </c>
-      <c r="H3">
-        <v>1.17072</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3">
-        <v>1.1727099999999999</v>
-      </c>
-      <c r="K3">
-        <v>-4.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>45470330</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-      <c r="F4">
-        <v>0.72540000000000004</v>
-      </c>
-      <c r="G4">
-        <v>0.73067000000000004</v>
-      </c>
-      <c r="H4">
-        <v>0.71567000000000003</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>0.73067000000000004</v>
-      </c>
-      <c r="K4">
-        <v>-105.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>45498648</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="F5">
-        <v>1.2654799999999999</v>
-      </c>
-      <c r="G5">
-        <v>1.2606200000000001</v>
-      </c>
-      <c r="H5">
-        <v>1.27189</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5">
-        <v>1.2669900000000001</v>
-      </c>
-      <c r="K5">
-        <v>11.92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>45522977</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.1</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.70233999999999996</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.70023999999999997</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>70507</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.70009999999999994</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-22.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
